--- a/biology/Médecine/Xenotransplantation_(journal)/Xenotransplantation_(journal).xlsx
+++ b/biology/Médecine/Xenotransplantation_(journal)/Xenotransplantation_(journal).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Xenotransplantation est une revue médicale bimestrielle, traitant de xénotransplantation. Elle fut publiée par Wiley-Blackwell et le rédacteur en chef est Leo H. Bühler, professeur de chirurgie à l’université de Fribourg[1]. Le prix annuel Carl-Gustav-Groth de Xenotransplantation, doté d’une somme de 7 000 dollars américains est décerné au premier auteur du meilleur article publié dans la revue[2].
-La revue présentait des niveaux inhabituels d'auto-citations et son facteur d'impact de 2019 a été suspendu des Journal Citation Reports en 2020, une sanction qui a touché 34 revues au total[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xenotransplantation est une revue médicale bimestrielle, traitant de xénotransplantation. Elle fut publiée par Wiley-Blackwell et le rédacteur en chef est Leo H. Bühler, professeur de chirurgie à l’université de Fribourg. Le prix annuel Carl-Gustav-Groth de Xenotransplantation, doté d’une somme de 7 000 dollars américains est décerné au premier auteur du meilleur article publié dans la revue.
+La revue présentait des niveaux inhabituels d'auto-citations et son facteur d'impact de 2019 a été suspendu des Journal Citation Reports en 2020, une sanction qui a touché 34 revues au total.
 </t>
         </is>
       </c>
